--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H2">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I2">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J2">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.236283</v>
+        <v>0.6692693333333334</v>
       </c>
       <c r="N2">
-        <v>0.7088490000000001</v>
+        <v>2.007808</v>
       </c>
       <c r="O2">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566838</v>
       </c>
       <c r="P2">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566839</v>
       </c>
       <c r="Q2">
-        <v>6.912104976783001</v>
+        <v>30.12530159451023</v>
       </c>
       <c r="R2">
-        <v>62.208944791047</v>
+        <v>271.127714350592</v>
       </c>
       <c r="S2">
-        <v>0.001151139244179625</v>
+        <v>0.00308786578781797</v>
       </c>
       <c r="T2">
-        <v>0.001151139244179625</v>
+        <v>0.00308786578781797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H3">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I3">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J3">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>482.517059</v>
       </c>
       <c r="O3">
-        <v>0.9948614511421033</v>
+        <v>0.9916964991825307</v>
       </c>
       <c r="P3">
-        <v>0.9948614511421032</v>
+        <v>0.9916964991825309</v>
       </c>
       <c r="Q3">
-        <v>4705.104422657852</v>
+        <v>7239.722088402417</v>
       </c>
       <c r="R3">
-        <v>42345.93980392067</v>
+        <v>65157.49879562177</v>
       </c>
       <c r="S3">
-        <v>0.7835862399481912</v>
+        <v>0.7420768910795477</v>
       </c>
       <c r="T3">
-        <v>0.7835862399481912</v>
+        <v>0.7420768910795479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H4">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I4">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J4">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.474493</v>
+        <v>0.5637343333333333</v>
       </c>
       <c r="N4">
-        <v>1.423479</v>
+        <v>1.691203</v>
       </c>
       <c r="O4">
-        <v>0.002934951950808252</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="P4">
-        <v>0.002934951950808251</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="Q4">
-        <v>13.880581449993</v>
+        <v>25.37493646431356</v>
       </c>
       <c r="R4">
-        <v>124.925233049937</v>
+        <v>228.374428178822</v>
       </c>
       <c r="S4">
-        <v>0.00231166657520229</v>
+        <v>0.002600949833826299</v>
       </c>
       <c r="T4">
-        <v>0.00231166657520229</v>
+        <v>0.002600949833826299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H5">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I5">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J5">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.119972</v>
+        <v>0.1137056666666667</v>
       </c>
       <c r="N5">
-        <v>0.359916</v>
+        <v>0.341117</v>
       </c>
       <c r="O5">
-        <v>0.0007420806111836584</v>
+        <v>0.0007010830568617209</v>
       </c>
       <c r="P5">
-        <v>0.0007420806111836582</v>
+        <v>0.0007010830568617211</v>
       </c>
       <c r="Q5">
-        <v>3.509601021972</v>
+        <v>5.118145013873111</v>
       </c>
       <c r="R5">
-        <v>31.586409197748</v>
+        <v>46.063305124858</v>
       </c>
       <c r="S5">
-        <v>0.0005844875738107183</v>
+        <v>0.0005246136652225224</v>
       </c>
       <c r="T5">
-        <v>0.0005844875738107182</v>
+        <v>0.0005246136652225225</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H6">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I6">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J6">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.236283</v>
+        <v>0.6692693333333334</v>
       </c>
       <c r="N6">
-        <v>0.7088490000000001</v>
+        <v>2.007808</v>
       </c>
       <c r="O6">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566838</v>
       </c>
       <c r="P6">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566839</v>
       </c>
       <c r="Q6">
-        <v>0.7415426123390002</v>
+        <v>1.851396856632889</v>
       </c>
       <c r="R6">
-        <v>6.673883511051002</v>
+        <v>16.662571709696</v>
       </c>
       <c r="S6">
-        <v>0.0001234962149970397</v>
+        <v>0.0001897695528569321</v>
       </c>
       <c r="T6">
-        <v>0.0001234962149970397</v>
+        <v>0.0001897695528569321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H7">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I7">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J7">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>482.517059</v>
       </c>
       <c r="O7">
-        <v>0.9948614511421033</v>
+        <v>0.9916964991825307</v>
       </c>
       <c r="P7">
-        <v>0.9948614511421032</v>
+        <v>0.9916964991825309</v>
       </c>
       <c r="Q7">
-        <v>504.7717644082045</v>
+        <v>444.9282831348147</v>
       </c>
       <c r="R7">
-        <v>4542.945879673842</v>
+        <v>4004.354548213333</v>
       </c>
       <c r="S7">
-        <v>0.0840644911088303</v>
+        <v>0.04560547947426841</v>
       </c>
       <c r="T7">
-        <v>0.08406449110883032</v>
+        <v>0.04560547947426842</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H8">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I8">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J8">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.474493</v>
+        <v>0.5637343333333333</v>
       </c>
       <c r="N8">
-        <v>1.423479</v>
+        <v>1.691203</v>
       </c>
       <c r="O8">
-        <v>0.002934951950808252</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="P8">
-        <v>0.002934951950808251</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="Q8">
-        <v>1.489132856602334</v>
+        <v>1.559455843451222</v>
       </c>
       <c r="R8">
-        <v>13.402195709421</v>
+        <v>14.035102591061</v>
       </c>
       <c r="S8">
-        <v>0.0002479996002361166</v>
+        <v>0.0001598453821781276</v>
       </c>
       <c r="T8">
-        <v>0.0002479996002361166</v>
+        <v>0.0001598453821781277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H9">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I9">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J9">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.119972</v>
+        <v>0.1137056666666667</v>
       </c>
       <c r="N9">
-        <v>0.359916</v>
+        <v>0.341117</v>
       </c>
       <c r="O9">
-        <v>0.0007420806111836584</v>
+        <v>0.0007010830568617209</v>
       </c>
       <c r="P9">
-        <v>0.0007420806111836582</v>
+        <v>0.0007010830568617211</v>
       </c>
       <c r="Q9">
-        <v>0.3765160857426668</v>
+        <v>0.3145434929754444</v>
       </c>
       <c r="R9">
-        <v>3.388644771684</v>
+        <v>2.830891436779</v>
       </c>
       <c r="S9">
-        <v>6.270484082911102E-05</v>
+        <v>3.224094164476787E-05</v>
       </c>
       <c r="T9">
-        <v>6.270484082911102E-05</v>
+        <v>3.224094164476789E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.749137666666666</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H10">
-        <v>14.247413</v>
+        <v>37.12471</v>
       </c>
       <c r="I10">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J10">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.236283</v>
+        <v>0.6692693333333334</v>
       </c>
       <c r="N10">
-        <v>0.7088490000000001</v>
+        <v>2.007808</v>
       </c>
       <c r="O10">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566838</v>
       </c>
       <c r="P10">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566839</v>
       </c>
       <c r="Q10">
-        <v>1.122140495293</v>
+        <v>8.282143303964446</v>
       </c>
       <c r="R10">
-        <v>10.099264457637</v>
+        <v>74.53928973568001</v>
       </c>
       <c r="S10">
-        <v>0.0001868808367282826</v>
+        <v>0.0008489258398919366</v>
       </c>
       <c r="T10">
-        <v>0.0001868808367282827</v>
+        <v>0.0008489258398919369</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.749137666666666</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H11">
-        <v>14.247413</v>
+        <v>37.12471</v>
       </c>
       <c r="I11">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J11">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>482.517059</v>
       </c>
       <c r="O11">
-        <v>0.9948614511421033</v>
+        <v>0.9916964991825307</v>
       </c>
       <c r="P11">
-        <v>0.9948614511421032</v>
+        <v>0.9916964991825309</v>
       </c>
       <c r="Q11">
-        <v>763.8466465687072</v>
+        <v>1990.367320603099</v>
       </c>
       <c r="R11">
-        <v>6874.619819118366</v>
+        <v>17913.30588542789</v>
       </c>
       <c r="S11">
-        <v>0.1272107200850817</v>
+        <v>0.2040141286287145</v>
       </c>
       <c r="T11">
-        <v>0.1272107200850817</v>
+        <v>0.2040141286287146</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.749137666666666</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H12">
-        <v>14.247413</v>
+        <v>37.12471</v>
       </c>
       <c r="I12">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J12">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.474493</v>
+        <v>0.5637343333333333</v>
       </c>
       <c r="N12">
-        <v>1.423479</v>
+        <v>1.691203</v>
       </c>
       <c r="O12">
-        <v>0.002934951950808252</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="P12">
-        <v>0.002934951950808251</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="Q12">
-        <v>2.253432578869667</v>
+        <v>6.976157880681112</v>
       </c>
       <c r="R12">
-        <v>20.280893209827</v>
+        <v>62.78542092613</v>
       </c>
       <c r="S12">
-        <v>0.0003752857753698447</v>
+        <v>0.0007150613640361842</v>
       </c>
       <c r="T12">
-        <v>0.0003752857753698447</v>
+        <v>0.0007150613640361844</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.749137666666666</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H13">
-        <v>14.247413</v>
+        <v>37.12471</v>
       </c>
       <c r="I13">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J13">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.119972</v>
+        <v>0.1137056666666667</v>
       </c>
       <c r="N13">
-        <v>0.359916</v>
+        <v>0.341117</v>
       </c>
       <c r="O13">
-        <v>0.0007420806111836584</v>
+        <v>0.0007010830568617209</v>
       </c>
       <c r="P13">
-        <v>0.0007420806111836582</v>
+        <v>0.0007010830568617211</v>
       </c>
       <c r="Q13">
-        <v>0.5697635441453333</v>
+        <v>1.407096633452222</v>
       </c>
       <c r="R13">
-        <v>5.127871897307999</v>
+        <v>12.66386970107</v>
       </c>
       <c r="S13">
-        <v>9.48881965438289E-05</v>
+        <v>0.0001442284499944306</v>
       </c>
       <c r="T13">
-        <v>9.48881965438289E-05</v>
+        <v>0.0001442284499944306</v>
       </c>
     </row>
   </sheetData>
